--- a/content/research/ITOM/Supporting_Information/ITOM_Design.xlsx
+++ b/content/research/ITOM/Supporting_Information/ITOM_Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Documents/ADMIN/Website/sapere-aude/content/research/ITOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lzhan/Documents/ADMIN/Website/sapere-aude/content/research/ITOM/Supporting_Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5767D62-DDAF-4C43-8BDC-4C003406E433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C5C80-2E21-224D-9BA6-C18E73A2087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{C6FD53BC-E490-B041-9AEC-609B35C93EC8}"/>
+    <workbookView xWindow="14340" yWindow="3360" windowWidth="28800" windowHeight="16500" activeTab="1" xr2:uid="{C6FD53BC-E490-B041-9AEC-609B35C93EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Post" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="93">
   <si>
     <t xml:space="preserve">A dog letting a ball role behind an occluder by pushing its paw against it. </t>
   </si>
@@ -276,9 +276,6 @@
     <t>实验控制</t>
   </si>
   <si>
-    <t>移动</t>
-  </si>
-  <si>
     <t>狗 (24)</t>
   </si>
   <si>
@@ -295,6 +292,21 @@
   </si>
   <si>
     <t>狗 (24+24)</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>P1(球/N狗)</t>
+  </si>
+  <si>
+    <t>P1(球/狗)</t>
+  </si>
+  <si>
+    <t>P2(球/狗)</t>
+  </si>
+  <si>
+    <t>P2(球/N狗)</t>
   </si>
 </sst>
 </file>
@@ -337,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -345,49 +357,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B81681-124F-4445-8A91-6FAC90F3104E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -728,10 +712,10 @@
         <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -748,7 +732,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -758,195 +742,335 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD69691E-9406-E548-AF8F-263A569EA910}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickTop="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="9">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="H9" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F9">
-    <sortCondition ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G9">
+    <sortCondition ref="B2:B9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
